--- a/datas/api_case.xlsx
+++ b/datas/api_case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12480" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="231">
   <si>
     <t>caseid</t>
   </si>
@@ -60,9 +60,6 @@
     <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>注册名为空</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
     <t>{"status":1,"code":"10001","data":null,"msg":"登录成功"}</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
     <t>{"mobilephone":"","pwd":"123456"}</t>
   </si>
   <si>
@@ -180,36 +174,24 @@
     <t>{"status":1,"code":"10001","msg":"充值成功"}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":1126397,"regname":"ææ ç¨æ·","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13822221113","leaveamount":"20035989.00","type":"1","regtime":"2019-03-21 08:37:19.0"},"msg":"充值成功"}</t>
-  </si>
-  <si>
     <t>正常充值两位小数</t>
   </si>
   <si>
     <t>{"mobilephone":"${loanid_user}","amount":"0.01"}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":1126397,"regname":"ææ ç¨æ·","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13822221113","leaveamount":"20035989.01","type":"1","regtime":"2019-03-21 08:37:19.0"},"msg":"充值成功"}</t>
-  </si>
-  <si>
     <t>正常充值499999.99</t>
   </si>
   <si>
     <t>{"mobilephone":"${loanid_user}","amount":"499999.99"}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":1126397,"regname":"ææ ç¨æ·","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13822221113","leaveamount":"20535989.00","type":"1","regtime":"2019-03-21 08:37:19.0"},"msg":"充值成功"}</t>
-  </si>
-  <si>
     <t>正常充值50万</t>
   </si>
   <si>
     <t>{"mobilephone":"${loanid_user}","amount":"500000"}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":1126397,"regname":"ææ ç¨æ·","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13822221113","leaveamount":"21035989.00","type":"1","regtime":"2019-03-21 08:37:19.0"},"msg":"充值成功"}</t>
-  </si>
-  <si>
     <t>手机号码为空</t>
   </si>
   <si>
@@ -435,9 +417,6 @@
     <t>{"status":0,"code":"11012","data":null,"msg":"该标可投金额不足，可投金额：299000.0"}</t>
   </si>
   <si>
-    <t>{"status":0,"code":"11012","data":null,"msg":"该标可投金额不足，可投金额：49000.0"}</t>
-  </si>
-  <si>
     <t>将标投满</t>
   </si>
   <si>
@@ -456,11 +435,6 @@
     <t>{"mobilephone":"${withdraw_user}","amount":"1"}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":1127282,"regname":"å--å¼æµè¯ç¨æ·","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13822221114","leaveamount":"12.00","type":"1","regtime":"2019-03-26 10:37:35.0"},"msg":"充值成功"}</t>
-  </si>
-  <si>
     <t>成功取现</t>
   </si>
   <si>
@@ -470,49 +444,24 @@
     <t>{"status":1,"code":"10001","msg":"取现成功"}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":1127282,"regname":"å--å¼æµè¯ç¨æ·","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13822221114","leaveamount":"11.00","type":"1","regtime":"2019-03-26 10:37:35.0"},"msg":"取现成功"}</t>
-  </si>
-  <si>
     <t>成功取现0.01</t>
   </si>
   <si>
     <t>{"mobilephone":"${withdraw_user}","amount":"0.01"}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":1127282,"regname":"å--å¼æµè¯ç¨æ·","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13822221114","leaveamount":"11.99","type":"1","regtime":"2019-03-26 10:37:35.0"},"msg":"取现成功"}</t>
-  </si>
-  <si>
     <t>充值50万</t>
   </si>
   <si>
     <t>{"mobilephone":"${withdraw_user}","amount":"500000"}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":1127282,"regname":"å--å¼æµè¯ç¨æ·","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13822221114","leaveamount":"500011.99","type":"1","regtime":"2019-03-26 10:37:35.0"},"msg":"充值成功"}</t>
-  </si>
-  <si>
     <t>成功取现499999.99</t>
   </si>
   <si>
     <t>{"mobilephone":"${withdraw_user}","amount":"499999.99"}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":1127282,"regname":"å--å¼æµè¯ç¨æ·","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13822221114","leaveamount":"12.00","type":"1","regtime":"2019-03-26 10:37:35.0"},"msg":"取现成功"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":{"id":1127282,"regname":"å--å¼æµè¯ç¨æ·","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13822221114","leaveamount":"500012.00","type":"1","regtime":"2019-03-26 10:37:35.0"},"msg":"充值成功"}</t>
-  </si>
-  <si>
     <t>成功取现50万</t>
   </si>
   <si>
@@ -654,9 +603,6 @@
     <t>{"memberId":"${normal_user_id}","title":"","amount":"1000","loanRate":"18.0","loanTerm":"12","loanDateType":"0","repaymemtWay":"4","biddingDays":"5"}</t>
   </si>
   <si>
-    <t>Failed</t>
-  </si>
-  <si>
     <t>借款金额为空</t>
   </si>
   <si>
@@ -708,34 +654,34 @@
     <t>{"memberId":"${normal_user_id}","title":"new_title","amount":"0.3","loanRate":"18.0","loanTerm":"12","loanDateType":"0","repaymemtWay":"4","biddingDays":"5"}</t>
   </si>
   <si>
+    <t>借款金额非数字</t>
+  </si>
+  <si>
+    <t>{"memberId":"${normal_user_id}","title":"new_title","amount":"abc","loanRate":"18.0","loanTerm":"12","loanDateType":"0","repaymemtWay":"4","biddingDays":"5"}</t>
+  </si>
+  <si>
+    <t>借款金小于100的能被100整除的数</t>
+  </si>
+  <si>
+    <t>{"memberId":"${normal_user_id}","title":"new_title","amount":"900","loanRate":"18.0","loanTerm":"12","loanDateType":"0","repaymemtWay":"4","biddingDays":"5"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20111","data":null,"msg":"借款金额必须为大于1000并能被100整除的正整数"}</t>
+  </si>
+  <si>
+    <t>借款金大于1000不能被100整除的数</t>
+  </si>
+  <si>
+    <t>{"memberId":"${normal_user_id}","title":"new_title","amount":"10001","loanRate":"18.0","loanTerm":"12","loanDateType":"0","repaymemtWay":"4","biddingDays":"5"}</t>
+  </si>
+  <si>
+    <t>借款金额是负数</t>
+  </si>
+  <si>
+    <t>{"memberId":"${normal_user_id}","title":"new_title","amount":"-10000","loanRate":"18.0","loanTerm":"12","loanDateType":"0","repaymemtWay":"4","biddingDays":"5"}</t>
+  </si>
+  <si>
     <t>{"status":0,"code":"20106","data":null,"msg":"参数错误：借款金额amount必须为大于1000并能被100整除的正整数"}</t>
-  </si>
-  <si>
-    <t>借款金额非数字</t>
-  </si>
-  <si>
-    <t>{"memberId":"${normal_user_id}","title":"new_title","amount":"abc","loanRate":"18.0","loanTerm":"12","loanDateType":"0","repaymemtWay":"4","biddingDays":"5"}</t>
-  </si>
-  <si>
-    <t>借款金小于100的能被100整除的数</t>
-  </si>
-  <si>
-    <t>{"memberId":"${normal_user_id}","title":"new_title","amount":"900","loanRate":"18.0","loanTerm":"12","loanDateType":"0","repaymemtWay":"4","biddingDays":"5"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20111","data":null,"msg":"借款金额必须为大于1000并能被100整除的正整数"}</t>
-  </si>
-  <si>
-    <t>借款金大于1000不能被100整除的数</t>
-  </si>
-  <si>
-    <t>{"memberId":"${normal_user_id}","title":"new_title","amount":"10001","loanRate":"18.0","loanTerm":"12","loanDateType":"0","repaymemtWay":"4","biddingDays":"5"}</t>
-  </si>
-  <si>
-    <t>借款金额是负数</t>
-  </si>
-  <si>
-    <t>{"memberId":"${normal_user_id}","title":"new_title","amount":"-10000","loanRate":"18.0","loanTerm":"12","loanDateType":"0","repaymemtWay":"4","biddingDays":"5"}</t>
   </si>
   <si>
     <t>年利率是负数</t>
@@ -774,9 +720,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -811,8 +757,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -841,15 +796,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -860,6 +822,36 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -879,6 +871,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -888,61 +887,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -963,7 +909,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -975,7 +921,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -987,7 +951,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1005,13 +1035,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1023,91 +1059,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,18 +1078,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1153,24 +1099,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1179,22 +1127,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1216,11 +1149,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1228,22 +1159,37 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1256,10 +1202,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="2">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="7">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -1268,133 +1214,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1807,8 +1753,8 @@
   <sheetPr/>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1818,7 +1764,7 @@
     <col min="3" max="3" width="18.25" style="8" customWidth="1"/>
     <col min="4" max="4" width="81.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="67.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="40.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1847,7 +1793,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1" spans="1:8">
+    <row r="2" ht="14.25" customHeight="1" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1866,25 +1812,19 @@
       <c r="F2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1" spans="1:8">
+    </row>
+    <row r="3" ht="14.25" customHeight="1" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
@@ -1892,193 +1832,145 @@
       <c r="F3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1" spans="1:8">
+    </row>
+    <row r="4" ht="14.25" customHeight="1" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1" spans="1:8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" customHeight="1" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1" spans="1:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" customHeight="1" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" customHeight="1" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" customHeight="1" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1" spans="1:8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" customHeight="1" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1" spans="1:8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" customHeight="1" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2105,7 +1997,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
@@ -2114,8 +2006,8 @@
     <col min="3" max="3" width="14.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="60.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="7.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="70.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="68.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="36.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2144,135 +2036,110 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1" spans="1:8">
+    <row r="2" ht="14.25" customHeight="1" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>37</v>
-      </c>
       <c r="E2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1" spans="1:8">
+      <c r="G2"/>
+    </row>
+    <row r="3" ht="14.25" customHeight="1" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G3"/>
+    </row>
+    <row r="4" ht="14.25" customHeight="1" spans="1:7">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G4"/>
+    </row>
+    <row r="5" ht="14.25" customHeight="1" spans="1:7">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1" spans="1:8">
+      <c r="G5"/>
+    </row>
+    <row r="6" ht="14.25" customHeight="1" spans="1:7">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s">
-        <v>40</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2290,7 +2157,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2330,369 +2197,299 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1" spans="1:8">
+    <row r="2" ht="14.25" customHeight="1" spans="1:7">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>36</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1" spans="1:8">
+      <c r="G2"/>
+    </row>
+    <row r="3" ht="14.25" customHeight="1" spans="1:7">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="E3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1" spans="1:8">
+      <c r="G3"/>
+    </row>
+    <row r="4" ht="14.25" customHeight="1" spans="1:7">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C4" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1" spans="1:8">
+      <c r="G4"/>
+    </row>
+    <row r="5" ht="14.25" customHeight="1" spans="1:7">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C5" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1" spans="1:8">
+      <c r="G5"/>
+    </row>
+    <row r="6" ht="14.25" customHeight="1" spans="1:7">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C6" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1" spans="1:8">
+      <c r="G6"/>
+    </row>
+    <row r="7" ht="14.25" customHeight="1" spans="1:7">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G7"/>
+    </row>
+    <row r="8" ht="14.25" customHeight="1" spans="1:7">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="G8"/>
+    </row>
+    <row r="9" ht="14.25" customHeight="1" spans="1:7">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G9"/>
+    </row>
+    <row r="10" ht="14.25" customHeight="1" spans="1:7">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" customHeight="1" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G10"/>
+    </row>
+    <row r="11" ht="14.25" customHeight="1" spans="1:7">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="G11"/>
+    </row>
+    <row r="12" ht="14.25" customHeight="1" spans="1:7">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" t="s">
-        <v>75</v>
-      </c>
-      <c r="H12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="G12"/>
+    </row>
+    <row r="13" ht="14.25" customHeight="1" spans="1:7">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" t="s">
-        <v>78</v>
-      </c>
-      <c r="H13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" customHeight="1" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="G13"/>
+    </row>
+    <row r="14" ht="14.25" customHeight="1" spans="1:7">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" t="s">
-        <v>78</v>
-      </c>
-      <c r="H14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="G14"/>
+    </row>
+    <row r="15" ht="14.25" customHeight="1" spans="1:7">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" t="s">
-        <v>13</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2711,7 +2508,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="G2" sqref="G2:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2750,576 +2547,444 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1" spans="1:8">
+    <row r="2" ht="14.25" customHeight="1" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1" spans="1:8">
+    </row>
+    <row r="3" ht="14.25" customHeight="1" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="G4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1" spans="1:8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" customHeight="1" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" t="s">
-        <v>99</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="G8" t="s">
-        <v>102</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="G9" t="s">
-        <v>102</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="G10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="G11" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="G12" t="s">
-        <v>113</v>
-      </c>
-      <c r="H12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="G13" t="s">
-        <v>116</v>
-      </c>
-      <c r="H13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="G14" t="s">
-        <v>119</v>
-      </c>
-      <c r="H14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="G15" t="s">
-        <v>119</v>
-      </c>
-      <c r="H15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1" spans="1:8">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1" spans="1:6">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="G16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="G17" t="s">
-        <v>127</v>
-      </c>
-      <c r="H17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="G18" t="s">
-        <v>119</v>
-      </c>
-      <c r="H18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="G19" t="s">
-        <v>116</v>
-      </c>
-      <c r="H19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G20" t="s">
-        <v>134</v>
-      </c>
-      <c r="H20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="G21" t="s">
-        <v>138</v>
-      </c>
-      <c r="H21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" t="s">
-        <v>99</v>
-      </c>
-      <c r="H22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="G23" t="s">
-        <v>141</v>
-      </c>
-      <c r="H23" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3357,7 +3022,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3367,7 +3032,7 @@
     <col min="3" max="3" width="24.75" style="2" customWidth="1"/>
     <col min="4" max="4" width="60.125" style="9" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="88.375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="52.25" style="8" customWidth="1"/>
     <col min="7" max="7" width="10.625" style="8" customWidth="1"/>
     <col min="8" max="8" width="9" style="1" customWidth="1"/>
   </cols>
@@ -3403,494 +3068,418 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>36</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
+      <c r="G2"/>
+      <c r="H2"/>
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:8">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" t="s">
-        <v>145</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
+      <c r="G3"/>
+      <c r="H3"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="G4" t="s">
-        <v>149</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" t="s">
-        <v>145</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
+      <c r="G5"/>
+      <c r="H5"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="G6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" t="s">
-        <v>155</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
+      <c r="G7"/>
+      <c r="H7"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="G8" t="s">
-        <v>158</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" t="s">
-        <v>159</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
+      <c r="G9"/>
+      <c r="H9"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="G10" t="s">
-        <v>158</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="G11" t="s">
-        <v>162</v>
-      </c>
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G11"/>
+      <c r="H11"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="G12" t="s">
-        <v>165</v>
-      </c>
-      <c r="H12" t="s">
-        <v>13</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" t="s">
-        <v>13</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G13"/>
+      <c r="H13"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" t="s">
-        <v>13</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G14"/>
+      <c r="H14"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" t="s">
-        <v>13</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G15"/>
+      <c r="H15"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" t="s">
-        <v>72</v>
-      </c>
-      <c r="H16" t="s">
-        <v>13</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G16"/>
+      <c r="H16"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17" t="s">
-        <v>75</v>
-      </c>
-      <c r="H17" t="s">
-        <v>13</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G17"/>
+      <c r="H17"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" t="s">
-        <v>78</v>
-      </c>
-      <c r="H18" t="s">
-        <v>13</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G18"/>
+      <c r="H18"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G19" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19" t="s">
-        <v>13</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G19"/>
+      <c r="H19"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" t="s">
-        <v>83</v>
-      </c>
-      <c r="H20" t="s">
-        <v>13</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G20"/>
+      <c r="H20"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3920,8 +3509,8 @@
   <sheetPr/>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3962,779 +3551,601 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" ht="27" customHeight="1" spans="1:8">
+      <c r="G2" s="8"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" ht="27" customHeight="1" spans="1:6">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" ht="28.5" customHeight="1" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" ht="28.5" customHeight="1" spans="1:6">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" ht="28.5" customHeight="1" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" ht="28.5" customHeight="1" spans="1:6">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" t="s">
-        <v>89</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" ht="28.5" customHeight="1" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" ht="28.5" customHeight="1" spans="1:6">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6" t="s">
-        <v>89</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" ht="28.5" customHeight="1" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" ht="28.5" customHeight="1" spans="1:6">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" ht="28.5" customHeight="1" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" ht="28.5" customHeight="1" spans="1:6">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" ht="28.5" customHeight="1" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" ht="28.5" customHeight="1" spans="1:6">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" t="s">
-        <v>89</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" ht="28.5" customHeight="1" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" ht="28.5" customHeight="1" spans="1:6">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10" t="s">
-        <v>89</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" ht="28.5" customHeight="1" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" ht="28.5" customHeight="1" spans="1:6">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G11" t="s">
-        <v>89</v>
-      </c>
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" ht="28.5" customHeight="1" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" ht="28.5" customHeight="1" spans="1:6">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G12" t="s">
-        <v>89</v>
-      </c>
-      <c r="H12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" ht="28.5" customHeight="1" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" ht="28.5" customHeight="1" spans="1:6">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" t="s">
-        <v>89</v>
-      </c>
-      <c r="H13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" ht="28.5" customHeight="1" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" ht="28.5" customHeight="1" spans="1:6">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>204</v>
-      </c>
-      <c r="G14" t="s">
-        <v>204</v>
-      </c>
-      <c r="H14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" ht="28.5" customHeight="1" spans="1:8">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" ht="28.5" customHeight="1" spans="1:6">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>204</v>
-      </c>
-      <c r="G15" t="s">
-        <v>89</v>
-      </c>
-      <c r="H15" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="16" ht="28.5" customHeight="1" spans="1:8">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" ht="28.5" customHeight="1" spans="1:6">
       <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>204</v>
-      </c>
-      <c r="G16" t="s">
-        <v>204</v>
-      </c>
-      <c r="H16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" ht="28.5" customHeight="1" spans="1:8">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" ht="28.5" customHeight="1" spans="1:6">
       <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>204</v>
-      </c>
-      <c r="G17" t="s">
-        <v>204</v>
-      </c>
-      <c r="H17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" ht="28.5" customHeight="1" spans="1:8">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" ht="28.5" customHeight="1" spans="1:6">
       <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>204</v>
-      </c>
-      <c r="G18" t="s">
-        <v>204</v>
-      </c>
-      <c r="H18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" ht="28.5" customHeight="1" spans="1:8">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" ht="28.5" customHeight="1" spans="1:6">
       <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>204</v>
-      </c>
-      <c r="G19" t="s">
-        <v>204</v>
-      </c>
-      <c r="H19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" ht="28.5" customHeight="1" spans="1:8">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" ht="28.5" customHeight="1" spans="1:6">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>204</v>
-      </c>
-      <c r="G20" t="s">
-        <v>204</v>
-      </c>
-      <c r="H20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" ht="28.5" customHeight="1" spans="1:8">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" ht="28.5" customHeight="1" spans="1:6">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>220</v>
-      </c>
-      <c r="G21" t="s">
-        <v>220</v>
-      </c>
-      <c r="H21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" ht="28.5" customHeight="1" spans="1:8">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" ht="28.5" customHeight="1" spans="1:6">
       <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>220</v>
-      </c>
-      <c r="G22" t="s">
-        <v>220</v>
-      </c>
-      <c r="H22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" ht="28.5" customHeight="1" spans="1:8">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" ht="28.5" customHeight="1" spans="1:6">
       <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>220</v>
-      </c>
-      <c r="G23" t="s">
-        <v>225</v>
-      </c>
-      <c r="H23" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="24" ht="28.5" customHeight="1" spans="1:8">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" ht="28.5" customHeight="1" spans="1:6">
       <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F24" t="s">
-        <v>220</v>
-      </c>
-      <c r="G24" t="s">
-        <v>220</v>
-      </c>
-      <c r="H24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" ht="28.5" customHeight="1" spans="1:8">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" ht="28.5" customHeight="1" spans="1:6">
       <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s">
-        <v>230</v>
-      </c>
-      <c r="G25" t="s">
-        <v>89</v>
-      </c>
-      <c r="H25" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="26" ht="28.5" customHeight="1" spans="1:8">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" ht="28.5" customHeight="1" spans="1:6">
       <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s">
-        <v>230</v>
-      </c>
-      <c r="G26" t="s">
-        <v>225</v>
-      </c>
-      <c r="H26" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="27" ht="28.5" customHeight="1" spans="1:8">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27" ht="28.5" customHeight="1" spans="1:6">
       <c r="A27" s="4">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F27" t="s">
-        <v>225</v>
-      </c>
-      <c r="G27" t="s">
-        <v>225</v>
-      </c>
-      <c r="H27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" ht="28.5" customHeight="1" spans="1:8">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" ht="28.5" customHeight="1" spans="1:6">
       <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F28" t="s">
-        <v>237</v>
-      </c>
-      <c r="G28" t="s">
-        <v>237</v>
-      </c>
-      <c r="H28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" ht="28.5" customHeight="1" spans="1:8">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" ht="28.5" customHeight="1" spans="1:6">
       <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F29" t="s">
-        <v>220</v>
-      </c>
-      <c r="G29" t="s">
-        <v>220</v>
-      </c>
-      <c r="H29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" ht="28.5" customHeight="1" spans="1:8">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30" ht="28.5" customHeight="1" spans="1:6">
       <c r="A30" s="4">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F30" t="s">
-        <v>237</v>
-      </c>
-      <c r="G30" t="s">
-        <v>237</v>
-      </c>
-      <c r="H30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" ht="28.5" customHeight="1" spans="1:8">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31" ht="28.5" customHeight="1" spans="1:6">
       <c r="A31" s="4">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F31" t="s">
-        <v>244</v>
-      </c>
-      <c r="G31" t="s">
-        <v>244</v>
-      </c>
-      <c r="H31" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/datas/api_case.xlsx
+++ b/datas/api_case.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12480"/>
+    <workbookView activeTab="4" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12480" windowWidth="28800"/>
   </bookViews>
   <sheets>
-    <sheet name="register" sheetId="1" r:id="rId1"/>
-    <sheet name="login" sheetId="2" r:id="rId2"/>
-    <sheet name="recharge" sheetId="3" r:id="rId3"/>
-    <sheet name="bidLoan" sheetId="4" r:id="rId4"/>
-    <sheet name="withdraw" sheetId="5" r:id="rId5"/>
-    <sheet name="addloan" sheetId="6" r:id="rId6"/>
+    <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="login" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="recharge" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="bidLoan" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="withdraw" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="addloan" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="245">
   <si>
     <t>caseid</t>
   </si>
@@ -60,6 +60,9 @@
     <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
   </si>
   <si>
+    <t>PASS</t>
+  </si>
+  <si>
     <t>注册名为空</t>
   </si>
   <si>
@@ -162,6 +165,9 @@
     <t>{"mobilephone":"${loanid_user}","pwd":"${loanid_pwd}"}</t>
   </si>
   <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>正常充值</t>
   </si>
   <si>
@@ -174,24 +180,36 @@
     <t>{"status":1,"code":"10001","msg":"充值成功"}</t>
   </si>
   <si>
+    <t>{"status":1,"code":"10001","data":{"id":1126397,"regname":"ææ ç¨æ·","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13822221113","leaveamount":"80873960.00","type":"1","regtime":"2019-03-21 08:37:19.0"},"msg":"充值成功"}</t>
+  </si>
+  <si>
     <t>正常充值两位小数</t>
   </si>
   <si>
     <t>{"mobilephone":"${loanid_user}","amount":"0.01"}</t>
   </si>
   <si>
+    <t>{"status":1,"code":"10001","data":{"id":1126397,"regname":"ææ ç¨æ·","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13822221113","leaveamount":"80873960.01","type":"1","regtime":"2019-03-21 08:37:19.0"},"msg":"充值成功"}</t>
+  </si>
+  <si>
     <t>正常充值499999.99</t>
   </si>
   <si>
     <t>{"mobilephone":"${loanid_user}","amount":"499999.99"}</t>
   </si>
   <si>
+    <t>{"status":1,"code":"10001","data":{"id":1126397,"regname":"ææ ç¨æ·","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13822221113","leaveamount":"81373960.00","type":"1","regtime":"2019-03-21 08:37:19.0"},"msg":"充值成功"}</t>
+  </si>
+  <si>
     <t>正常充值50万</t>
   </si>
   <si>
     <t>{"mobilephone":"${loanid_user}","amount":"500000"}</t>
   </si>
   <si>
+    <t>{"status":1,"code":"10001","data":{"id":1126397,"regname":"ææ ç¨æ·","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13822221113","leaveamount":"81873960.00","type":"1","regtime":"2019-03-21 08:37:19.0"},"msg":"充值成功"}</t>
+  </si>
+  <si>
     <t>手机号码为空</t>
   </si>
   <si>
@@ -417,6 +435,9 @@
     <t>{"status":0,"code":"11012","data":null,"msg":"该标可投金额不足，可投金额：299000.0"}</t>
   </si>
   <si>
+    <t>{"status":0,"code":"11012","data":null,"msg":"该标可投金额不足，可投金额：49000.0"}</t>
+  </si>
+  <si>
     <t>将标投满</t>
   </si>
   <si>
@@ -435,6 +456,11 @@
     <t>{"mobilephone":"${withdraw_user}","amount":"1"}</t>
   </si>
   <si>
+    <t>{"status":1,"code":"10001","data":{"id":1127282,"regname":"å++å¼æµè¯ç¨æ·","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13822221114","leaveamount":"85.99","type":"1","regtime":"2019-03-26 10:37:35.0"},"msg":"充值成功"}</t>
+  </si>
+  <si>
     <t>成功取现</t>
   </si>
   <si>
@@ -444,24 +470,49 @@
     <t>{"status":1,"code":"10001","msg":"取现成功"}</t>
   </si>
   <si>
+    <t>{"status":1,"code":"10001","data":{"id":1127282,"regname":"å++å¼æµè¯ç¨æ·","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13822221114","leaveamount":"84.99","type":"1","regtime":"2019-03-26 10:37:35.0"},"msg":"取现成功"}</t>
+  </si>
+  <si>
     <t>成功取现0.01</t>
   </si>
   <si>
     <t>{"mobilephone":"${withdraw_user}","amount":"0.01"}</t>
   </si>
   <si>
+    <t>{"status":1,"code":"10001","data":{"id":1127282,"regname":"å++å¼æµè¯ç¨æ·","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13822221114","leaveamount":"85.98","type":"1","regtime":"2019-03-26 10:37:35.0"},"msg":"取现成功"}</t>
+  </si>
+  <si>
     <t>充值50万</t>
   </si>
   <si>
     <t>{"mobilephone":"${withdraw_user}","amount":"500000"}</t>
   </si>
   <si>
+    <t>{"status":1,"code":"10001","data":{"id":1127282,"regname":"å++å¼æµè¯ç¨æ·","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13822221114","leaveamount":"500085.98","type":"1","regtime":"2019-03-26 10:37:35.0"},"msg":"充值成功"}</t>
+  </si>
+  <si>
     <t>成功取现499999.99</t>
   </si>
   <si>
     <t>{"mobilephone":"${withdraw_user}","amount":"499999.99"}</t>
   </si>
   <si>
+    <t>{"status":1,"code":"10001","data":{"id":1127282,"regname":"å++å¼æµè¯ç¨æ·","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13822221114","leaveamount":"85.99","type":"1","regtime":"2019-03-26 10:37:35.0"},"msg":"取现成功"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":{"id":1127282,"regname":"å++å¼æµè¯ç¨æ·","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13822221114","leaveamount":"500085.99","type":"1","regtime":"2019-03-26 10:37:35.0"},"msg":"充值成功"}</t>
+  </si>
+  <si>
     <t>成功取现50万</t>
   </si>
   <si>
@@ -712,6 +763,9 @@
   </si>
   <si>
     <t>{"status":0,"code":"20108","data":null,"msg":"参数错误：借款日期类型loanDateType只能为0,2,4"}</t>
+  </si>
+  <si>
+    <t>Failed</t>
   </si>
 </sst>
 </file>
@@ -719,197 +773,329 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ " numFmtId="164"/>
+    <numFmt formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ " numFmtId="165"/>
+    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
+    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
   </numFmts>
   <fonts count="23">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <sz val="12"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,73 +1113,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1005,85 +1131,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,11 +1153,50 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1127,22 +1220,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1152,30 +1230,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1196,271 +1250,266 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="18" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="17" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="20" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="20" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="32" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
+    <cellStyle builtinId="20" name="输入" xfId="3"/>
+    <cellStyle builtinId="4" name="货币" xfId="4"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
+    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
+    <cellStyle builtinId="27" name="差" xfId="7"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
+    <cellStyle builtinId="8" name="超链接" xfId="10"/>
+    <cellStyle builtinId="5" name="百分比" xfId="11"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
+    <cellStyle builtinId="10" name="注释" xfId="13"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
+    <cellStyle builtinId="15" name="标题" xfId="17"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
+    <cellStyle builtinId="21" name="输出" xfId="24"/>
+    <cellStyle builtinId="22" name="计算" xfId="25"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
+    <cellStyle builtinId="25" name="汇总" xfId="30"/>
+    <cellStyle builtinId="26" name="好" xfId="31"/>
+    <cellStyle builtinId="28" name="适中" xfId="32"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -1749,22 +1798,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.25" style="8" customWidth="1"/>
-    <col min="4" max="4" width="81.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="40.875" style="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="1" width="7.375"/>
+    <col customWidth="1" max="2" min="2" style="1" width="21.375"/>
+    <col customWidth="1" max="3" min="3" style="8" width="18.2583333333333"/>
+    <col customWidth="1" max="4" min="4" style="1" width="81.5"/>
+    <col customWidth="1" max="5" min="5" style="1" width="7.375"/>
+    <col customWidth="1" max="6" min="6" style="1" width="40.875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1793,8 +1845,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A2" s="1">
+    <row customHeight="1" ht="14.25" r="2" s="2" spans="1:8">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1812,19 +1864,25 @@
       <c r="F2" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A3" s="1">
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="3" s="2" spans="1:8">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
@@ -1832,182 +1890,232 @@
       <c r="F3" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A4" s="1">
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="4" s="2" spans="1:8">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A5" s="1">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="5" s="2" spans="1:8">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A6" s="1">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="6" s="2" spans="1:8">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A7" s="1">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="7" s="2" spans="1:8">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A8" s="1">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="8" s="2" spans="1:8">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A9" s="1">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="9" s="2" spans="1:8">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A10" s="1">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="10" s="2" spans="1:8">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C6" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C7" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C8" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C9" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C10" r:id="rId1" display="/member/register"/>
+    <hyperlink display="/member/register" ref="C2" r:id="rId1"/>
+    <hyperlink display="/member/register" ref="C3" r:id="rId2"/>
+    <hyperlink display="/member/register" ref="C4" r:id="rId3"/>
+    <hyperlink display="/member/register" ref="C5" r:id="rId4"/>
+    <hyperlink display="/member/register" ref="C6" r:id="rId5"/>
+    <hyperlink display="/member/register" ref="C7" r:id="rId6"/>
+    <hyperlink display="/member/register" ref="C8" r:id="rId7"/>
+    <hyperlink display="/member/register" ref="C9" r:id="rId8"/>
+    <hyperlink display="/member/register" ref="C10" r:id="rId9"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G2" sqref="G2:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="5"/>
   <cols>
-    <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="36.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.625" style="2" customWidth="1"/>
+    <col customWidth="1" max="2" min="2" style="2" width="12.875"/>
+    <col customWidth="1" max="3" min="3" style="2" width="14.875"/>
+    <col customWidth="1" max="4" min="4" style="2" width="60.375"/>
+    <col customWidth="1" max="5" min="5" style="2" width="7.375"/>
+    <col customWidth="1" max="6" min="6" style="2" width="36.2583333333333"/>
+    <col customWidth="1" max="7" min="7" style="2" width="16.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2036,142 +2144,169 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A2" s="1">
+    <row customHeight="1" ht="14.25" r="2" s="2" spans="1:8">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="3" s="2" spans="1:8">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2"/>
-    </row>
-    <row r="3" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="D3" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3"/>
-    </row>
-    <row r="4" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A4" s="1">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="4" s="2" spans="1:8">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4"/>
-    </row>
-    <row r="5" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A5" s="1">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="5" s="2" spans="1:8">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5"/>
-    </row>
-    <row r="6" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A6" s="1">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="6" s="2" spans="1:8">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6"/>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" display="/member/login" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/member/login"/>
+    <hyperlink display="/member/login" ref="C6" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/member/login" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G2" sqref="G2:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9" style="15" customWidth="1"/>
-    <col min="2" max="2" width="20.375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="54.875" style="16" customWidth="1"/>
-    <col min="5" max="5" width="6.625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="81.625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="7.375" style="2" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="15" width="9"/>
+    <col customWidth="1" max="2" min="2" style="4" width="20.375"/>
+    <col customWidth="1" max="3" min="3" style="16" width="21.125"/>
+    <col customWidth="1" max="4" min="4" style="16" width="54.875"/>
+    <col customWidth="1" max="5" min="5" style="16" width="6.625"/>
+    <col customWidth="1" max="6" min="6" style="16" width="81.625"/>
+    <col customWidth="1" max="7" min="7" style="2" width="7.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row customHeight="1" ht="28" r="1" s="2" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2197,331 +2332,403 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A2" s="4">
+    <row customHeight="1" ht="14.25" r="2" s="2" spans="1:8">
+      <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2"/>
-    </row>
-    <row r="3" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A3" s="4">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="3" s="2" spans="1:8">
+      <c r="A3" s="4" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="4" s="2" spans="1:8">
+      <c r="A4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="G3"/>
-    </row>
-    <row r="4" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>48</v>
-      </c>
       <c r="D4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="5" s="2" spans="1:8">
+      <c r="A5" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="G4"/>
-    </row>
-    <row r="5" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>48</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="6" s="2" spans="1:8">
+      <c r="A6" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="G5"/>
-    </row>
-    <row r="6" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>48</v>
-      </c>
       <c r="D6" s="5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="7" s="2" spans="1:8">
+      <c r="A7" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="G6"/>
-    </row>
-    <row r="7" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>48</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7"/>
-    </row>
-    <row r="8" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A8" s="4">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="8" s="2" spans="1:8">
+      <c r="A8" s="4" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8"/>
-    </row>
-    <row r="9" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A9" s="4">
+        <v>67</v>
+      </c>
+      <c r="G8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="9" s="2" spans="1:8">
+      <c r="A9" s="4" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9"/>
-    </row>
-    <row r="10" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A10" s="4">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="10" s="2" spans="1:8">
+      <c r="A10" s="4" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A11" s="4">
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="11" s="2" spans="1:8">
+      <c r="A11" s="4" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A12" s="4">
+        <v>72</v>
+      </c>
+      <c r="G11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="12" s="2" spans="1:8">
+      <c r="A12" s="4" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12"/>
-    </row>
-    <row r="13" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A13" s="4">
+        <v>75</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="13" s="2" spans="1:8">
+      <c r="A13" s="4" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13"/>
-    </row>
-    <row r="14" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A14" s="4">
+        <v>78</v>
+      </c>
+      <c r="G13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="14" s="2" spans="1:8">
+      <c r="A14" s="4" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14"/>
-    </row>
-    <row r="15" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A15" s="4">
+        <v>78</v>
+      </c>
+      <c r="G14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="15" s="2" spans="1:8">
+      <c r="A15" s="4" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15"/>
+        <v>83</v>
+      </c>
+      <c r="G15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C15" r:id="rId2" display="/member/recharge"/>
+    <hyperlink display="/member/login" ref="C2" r:id="rId1"/>
+    <hyperlink display="/member/recharge" ref="C15" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.25" style="9" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="94.875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34.75" style="8" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="2" width="7.375"/>
+    <col customWidth="1" max="2" min="2" style="9" width="21.2583333333333"/>
+    <col customWidth="1" max="3" min="3" style="11" width="17.125"/>
+    <col customWidth="1" max="4" min="4" style="9" width="94.875"/>
+    <col customWidth="1" max="5" min="5" style="1" width="9"/>
+    <col customWidth="1" max="6" min="6" style="8" width="34.7583333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row customFormat="1" r="1" s="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2547,497 +2754,631 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A2" s="1">
+    <row customHeight="1" ht="14.25" r="2" s="2" spans="1:8">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A3" s="1">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="3" s="2" spans="1:8">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
+        <v>89</v>
+      </c>
+      <c r="G3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A5" s="1">
+        <v>93</v>
+      </c>
+      <c r="G4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="5" s="2" spans="1:8">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
+        <v>99</v>
+      </c>
+      <c r="G6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
+        <v>102</v>
+      </c>
+      <c r="G7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>91</v>
-      </c>
       <c r="D8" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" t="s">
+        <v>113</v>
+      </c>
+      <c r="H12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" t="s">
+        <v>116</v>
+      </c>
+      <c r="H13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" t="s">
+        <v>119</v>
+      </c>
+      <c r="H14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G15" t="s">
+        <v>119</v>
+      </c>
+      <c r="H15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="16" s="2" spans="1:8">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G17" t="s">
+        <v>127</v>
+      </c>
+      <c r="H17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G18" t="s">
+        <v>119</v>
+      </c>
+      <c r="H18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G19" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" t="s">
+        <v>134</v>
+      </c>
+      <c r="H20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G21" t="s">
+        <v>138</v>
+      </c>
+      <c r="H21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1" spans="1:6">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>92</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>134</v>
+        <v>141</v>
+      </c>
+      <c r="G23" t="s">
+        <v>141</v>
+      </c>
+      <c r="H23" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C3" r:id="rId2" display="/loan/add" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add"/>
-    <hyperlink ref="C4" r:id="rId3" display="/loan/audit" tooltip="http://47.107.168.87:8080/futureloan/mvc/api//loan/audit"/>
-    <hyperlink ref="C6" r:id="rId4" display="/member/bidLoan" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/member/bidLoan"/>
-    <hyperlink ref="C7" r:id="rId4" display="/member/bidLoan" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/member/bidLoan"/>
-    <hyperlink ref="C8" r:id="rId4" display="/member/bidLoan" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/member/bidLoan"/>
-    <hyperlink ref="C9" r:id="rId4" display="/member/bidLoan" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/member/bidLoan"/>
-    <hyperlink ref="C10" r:id="rId4" display="/member/bidLoan" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/member/bidLoan"/>
-    <hyperlink ref="C11" r:id="rId4" display="/member/bidLoan" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/member/bidLoan"/>
-    <hyperlink ref="C12" r:id="rId4" display="/member/bidLoan" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/member/bidLoan"/>
-    <hyperlink ref="C13" r:id="rId4" display="/member/bidLoan" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/member/bidLoan"/>
-    <hyperlink ref="C14" r:id="rId4" display="/member/bidLoan" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/member/bidLoan"/>
-    <hyperlink ref="C15" r:id="rId4" display="/member/bidLoan" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/member/bidLoan"/>
-    <hyperlink ref="C16" r:id="rId4" display="/member/bidLoan" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/member/bidLoan"/>
-    <hyperlink ref="C17" r:id="rId4" display="/member/bidLoan" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/member/bidLoan"/>
-    <hyperlink ref="C18" r:id="rId4" display="/member/bidLoan" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/member/bidLoan"/>
-    <hyperlink ref="C19" r:id="rId4" display="/member/bidLoan" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/member/bidLoan"/>
-    <hyperlink ref="C20" r:id="rId4" display="/member/bidLoan" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/member/bidLoan"/>
-    <hyperlink ref="C21" r:id="rId4" display="/member/bidLoan" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/member/bidLoan"/>
-    <hyperlink ref="C22" r:id="rId4" display="/member/bidLoan" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/member/bidLoan"/>
-    <hyperlink ref="C23" r:id="rId4" display="/member/bidLoan" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/member/bidLoan"/>
+    <hyperlink display="/member/login" ref="C2" r:id="rId1"/>
+    <hyperlink display="/loan/add" ref="C3" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add" r:id="rId2"/>
+    <hyperlink display="/loan/audit" ref="C4" tooltip="http://47.107.168.87:8080/futureloan/mvc/api//loan/audit" r:id="rId3"/>
+    <hyperlink display="/member/bidLoan" ref="C6" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/member/bidLoan" r:id="rId4"/>
+    <hyperlink display="/member/bidLoan" ref="C7" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/member/bidLoan" r:id="rId5"/>
+    <hyperlink display="/member/bidLoan" ref="C8" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/member/bidLoan" r:id="rId6"/>
+    <hyperlink display="/member/bidLoan" ref="C9" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/member/bidLoan" r:id="rId7"/>
+    <hyperlink display="/member/bidLoan" ref="C10" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/member/bidLoan" r:id="rId8"/>
+    <hyperlink display="/member/bidLoan" ref="C11" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/member/bidLoan" r:id="rId9"/>
+    <hyperlink display="/member/bidLoan" ref="C12" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/member/bidLoan" r:id="rId10"/>
+    <hyperlink display="/member/bidLoan" ref="C13" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/member/bidLoan" r:id="rId11"/>
+    <hyperlink display="/member/bidLoan" ref="C14" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/member/bidLoan" r:id="rId12"/>
+    <hyperlink display="/member/bidLoan" ref="C15" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/member/bidLoan" r:id="rId13"/>
+    <hyperlink display="/member/bidLoan" ref="C16" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/member/bidLoan" r:id="rId14"/>
+    <hyperlink display="/member/bidLoan" ref="C17" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/member/bidLoan" r:id="rId15"/>
+    <hyperlink display="/member/bidLoan" ref="C18" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/member/bidLoan" r:id="rId16"/>
+    <hyperlink display="/member/bidLoan" ref="C19" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/member/bidLoan" r:id="rId17"/>
+    <hyperlink display="/member/bidLoan" ref="C20" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/member/bidLoan" r:id="rId18"/>
+    <hyperlink display="/member/bidLoan" ref="C21" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/member/bidLoan" r:id="rId19"/>
+    <hyperlink display="/member/bidLoan" ref="C22" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/member/bidLoan" r:id="rId20"/>
+    <hyperlink display="/member/bidLoan" ref="C23" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/member/bidLoan" r:id="rId21"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="24.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="52.25" style="8" customWidth="1"/>
-    <col min="7" max="7" width="10.625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="1" width="9"/>
+    <col customWidth="1" max="2" min="2" style="9" width="19.375"/>
+    <col customWidth="1" max="3" min="3" style="2" width="24.7583333333333"/>
+    <col customWidth="1" max="4" min="4" style="9" width="60.125"/>
+    <col customWidth="1" max="5" min="5" style="1" width="9"/>
+    <col customWidth="1" max="6" min="6" style="8" width="52.2583333333333"/>
+    <col customWidth="1" max="7" min="7" style="8" width="10.625"/>
+    <col customWidth="1" max="8" min="8" style="1" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row customFormat="1" r="1" s="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3063,464 +3404,542 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1" spans="1:8">
-      <c r="A2" s="4">
+    <row customHeight="1" ht="14.25" r="2" s="2" spans="1:8">
+      <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2"/>
-      <c r="H2"/>
-    </row>
-    <row r="3" ht="14.25" customHeight="1" spans="1:8">
-      <c r="A3" s="4">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="3" s="2" spans="1:8">
+      <c r="A3" s="4" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G3"/>
-      <c r="H3"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="G4"/>
-      <c r="H4"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G5"/>
-      <c r="H5"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="G6"/>
-      <c r="H6"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G7"/>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="G8"/>
-      <c r="H8"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="D9" s="5" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9"/>
-      <c r="H9"/>
+        <v>52</v>
+      </c>
+      <c r="G9" t="s">
+        <v>159</v>
+      </c>
+      <c r="H9" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="4">
+      <c r="A10" s="4" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>139</v>
-      </c>
       <c r="D10" s="8" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="G10"/>
-      <c r="H10"/>
+        <v>148</v>
+      </c>
+      <c r="G10" t="s">
+        <v>158</v>
+      </c>
+      <c r="H10" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="4">
+      <c r="A11" s="4" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G11"/>
-      <c r="H11"/>
+        <v>162</v>
+      </c>
+      <c r="G11" t="s">
+        <v>162</v>
+      </c>
+      <c r="H11" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="4">
+      <c r="A12" s="4" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G12"/>
-      <c r="H12"/>
+        <v>165</v>
+      </c>
+      <c r="G12" t="s">
+        <v>165</v>
+      </c>
+      <c r="H12" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="4">
+      <c r="A13" s="4" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="8" t="s">
+      <c r="B16" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="G13"/>
-      <c r="H13"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14"/>
-      <c r="H14"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15"/>
-      <c r="H15"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16"/>
-      <c r="H16"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G17"/>
-      <c r="H17"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="4">
-        <v>17</v>
-      </c>
       <c r="B18" s="8" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18"/>
-      <c r="H18"/>
+        <v>78</v>
+      </c>
+      <c r="G18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="4">
+      <c r="A19" s="4" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19"/>
-      <c r="H19"/>
+        <v>78</v>
+      </c>
+      <c r="G19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="4">
+      <c r="A20" s="4" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20"/>
-      <c r="H20"/>
+        <v>83</v>
+      </c>
+      <c r="G20" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C4" r:id="rId2" display="/member/withdraw" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/member/withdraw"/>
-    <hyperlink ref="C6" r:id="rId2" display="/member/withdraw"/>
-    <hyperlink ref="C8" r:id="rId2" display="/member/withdraw"/>
-    <hyperlink ref="C10" r:id="rId2" display="/member/withdraw"/>
-    <hyperlink ref="C11" r:id="rId2" display="/member/withdraw"/>
-    <hyperlink ref="C12" r:id="rId2" display="/member/withdraw"/>
-    <hyperlink ref="C13" r:id="rId2" display="/member/withdraw"/>
-    <hyperlink ref="C14" r:id="rId2" display="/member/withdraw"/>
-    <hyperlink ref="C15" r:id="rId2" display="/member/withdraw"/>
-    <hyperlink ref="C16" r:id="rId2" display="/member/withdraw"/>
-    <hyperlink ref="C17" r:id="rId2" display="/member/withdraw"/>
-    <hyperlink ref="C18" r:id="rId2" display="/member/withdraw"/>
-    <hyperlink ref="C19" r:id="rId2" display="/member/withdraw"/>
-    <hyperlink ref="C20" r:id="rId2" display="/member/withdraw"/>
+    <hyperlink display="/member/login" ref="C2" r:id="rId1"/>
+    <hyperlink display="/member/withdraw" ref="C4" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/member/withdraw" r:id="rId2"/>
+    <hyperlink display="/member/withdraw" ref="C6" r:id="rId3"/>
+    <hyperlink display="/member/withdraw" ref="C8" r:id="rId4"/>
+    <hyperlink display="/member/withdraw" ref="C10" r:id="rId5"/>
+    <hyperlink display="/member/withdraw" ref="C11" r:id="rId6"/>
+    <hyperlink display="/member/withdraw" ref="C12" r:id="rId7"/>
+    <hyperlink display="/member/withdraw" ref="C13" r:id="rId8"/>
+    <hyperlink display="/member/withdraw" ref="C14" r:id="rId9"/>
+    <hyperlink display="/member/withdraw" ref="C15" r:id="rId10"/>
+    <hyperlink display="/member/withdraw" ref="C16" r:id="rId11"/>
+    <hyperlink display="/member/withdraw" ref="C17" r:id="rId12"/>
+    <hyperlink display="/member/withdraw" ref="C18" r:id="rId13"/>
+    <hyperlink display="/member/withdraw" ref="C19" r:id="rId14"/>
+    <hyperlink display="/member/withdraw" ref="C20" r:id="rId15"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G2" sqref="G2:H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="16.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="130.375" style="2" customWidth="1"/>
+    <col customWidth="1" max="2" min="2" style="2" width="16.5"/>
+    <col customWidth="1" max="3" min="3" style="2" width="14.875"/>
+    <col customWidth="1" max="4" min="4" style="2" width="95.75"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row customFormat="1" r="1" s="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3546,642 +3965,819 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="27" customHeight="1" spans="1:8">
-      <c r="A2" s="4">
+    <row customHeight="1" ht="27" r="2" s="2" spans="1:8">
+      <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" ht="27" customHeight="1" spans="1:6">
-      <c r="A3" s="4">
+        <v>39</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="3" s="2" spans="1:8">
+      <c r="A3" s="4" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" ht="28.5" customHeight="1" spans="1:6">
-      <c r="A4" s="4">
+        <v>89</v>
+      </c>
+      <c r="G3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="28.5" r="4" s="2" spans="1:8">
+      <c r="A4" s="4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" ht="28.5" customHeight="1" spans="1:6">
-      <c r="A5" s="4">
+        <v>89</v>
+      </c>
+      <c r="G4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="28.5" r="5" s="2" spans="1:8">
+      <c r="A5" s="4" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" ht="28.5" customHeight="1" spans="1:6">
-      <c r="A6" s="4">
+        <v>89</v>
+      </c>
+      <c r="G5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="28.5" r="6" s="2" spans="1:8">
+      <c r="A6" s="4" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" ht="28.5" customHeight="1" spans="1:6">
-      <c r="A7" s="4">
+        <v>89</v>
+      </c>
+      <c r="G6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="28.5" r="7" s="2" spans="1:8">
+      <c r="A7" s="4" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" ht="28.5" customHeight="1" spans="1:6">
-      <c r="A8" s="4">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="28.5" r="8" s="2" spans="1:8">
+      <c r="A8" s="4" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" ht="28.5" customHeight="1" spans="1:6">
-      <c r="A9" s="4">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="28.5" r="9" s="2" spans="1:8">
+      <c r="A9" s="4" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" ht="28.5" customHeight="1" spans="1:6">
-      <c r="A10" s="4">
+        <v>89</v>
+      </c>
+      <c r="G9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="28.5" r="10" s="2" spans="1:8">
+      <c r="A10" s="4" t="n">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" ht="28.5" customHeight="1" spans="1:6">
-      <c r="A11" s="4">
+        <v>89</v>
+      </c>
+      <c r="G10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="28.5" r="11" s="2" spans="1:8">
+      <c r="A11" s="4" t="n">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" ht="28.5" customHeight="1" spans="1:6">
-      <c r="A12" s="4">
+        <v>89</v>
+      </c>
+      <c r="G11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="28.5" r="12" s="2" spans="1:8">
+      <c r="A12" s="4" t="n">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" ht="28.5" customHeight="1" spans="1:6">
-      <c r="A13" s="4">
+        <v>89</v>
+      </c>
+      <c r="G12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="28.5" r="13" s="2" spans="1:8">
+      <c r="A13" s="4" t="n">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" ht="28.5" customHeight="1" spans="1:6">
-      <c r="A14" s="4">
+        <v>89</v>
+      </c>
+      <c r="G13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="28.5" r="14" s="2" spans="1:8">
+      <c r="A14" s="4" t="n">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="15" ht="28.5" customHeight="1" spans="1:6">
-      <c r="A15" s="4">
+        <v>204</v>
+      </c>
+      <c r="G14" t="s">
+        <v>204</v>
+      </c>
+      <c r="H14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="28.5" r="15" s="2" spans="1:8">
+      <c r="A15" s="4" t="n">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="16" ht="28.5" customHeight="1" spans="1:6">
-      <c r="A16" s="4">
+        <v>204</v>
+      </c>
+      <c r="G15" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="28.5" r="16" s="2" spans="1:8">
+      <c r="A16" s="4" t="n">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="17" ht="28.5" customHeight="1" spans="1:6">
-      <c r="A17" s="4">
+        <v>204</v>
+      </c>
+      <c r="G16" t="s">
+        <v>204</v>
+      </c>
+      <c r="H16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="28.5" r="17" s="2" spans="1:8">
+      <c r="A17" s="4" t="n">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="18" ht="28.5" customHeight="1" spans="1:6">
-      <c r="A18" s="4">
+        <v>204</v>
+      </c>
+      <c r="G17" t="s">
+        <v>204</v>
+      </c>
+      <c r="H17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="28.5" r="18" s="2" spans="1:8">
+      <c r="A18" s="4" t="n">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="19" ht="28.5" customHeight="1" spans="1:6">
-      <c r="A19" s="4">
+        <v>204</v>
+      </c>
+      <c r="G18" t="s">
+        <v>204</v>
+      </c>
+      <c r="H18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="28.5" r="19" s="2" spans="1:8">
+      <c r="A19" s="4" t="n">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="20" ht="28.5" customHeight="1" spans="1:6">
-      <c r="A20" s="4">
+        <v>204</v>
+      </c>
+      <c r="G19" t="s">
+        <v>204</v>
+      </c>
+      <c r="H19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="28.5" r="20" s="2" spans="1:8">
+      <c r="A20" s="4" t="n">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="21" ht="28.5" customHeight="1" spans="1:6">
-      <c r="A21" s="4">
+        <v>204</v>
+      </c>
+      <c r="G20" t="s">
+        <v>204</v>
+      </c>
+      <c r="H20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="28.5" r="21" s="2" spans="1:8">
+      <c r="A21" s="4" t="n">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="22" ht="28.5" customHeight="1" spans="1:6">
-      <c r="A22" s="4">
+        <v>219</v>
+      </c>
+      <c r="G21" t="s">
+        <v>219</v>
+      </c>
+      <c r="H21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="28.5" r="22" s="2" spans="1:8">
+      <c r="A22" s="4" t="n">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="23" ht="28.5" customHeight="1" spans="1:6">
-      <c r="A23" s="4">
+        <v>219</v>
+      </c>
+      <c r="G22" t="s">
+        <v>219</v>
+      </c>
+      <c r="H22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="28.5" r="23" s="2" spans="1:8">
+      <c r="A23" s="4" t="n">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="24" ht="28.5" customHeight="1" spans="1:6">
-      <c r="A24" s="4">
+        <v>219</v>
+      </c>
+      <c r="G23" t="s">
+        <v>233</v>
+      </c>
+      <c r="H23" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="28.5" r="24" s="2" spans="1:8">
+      <c r="A24" s="4" t="n">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F24" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="25" ht="28.5" customHeight="1" spans="1:6">
-      <c r="A25" s="4">
+        <v>219</v>
+      </c>
+      <c r="G24" t="s">
+        <v>219</v>
+      </c>
+      <c r="H24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="28.5" r="25" s="2" spans="1:8">
+      <c r="A25" s="4" t="n">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F25" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="26" ht="28.5" customHeight="1" spans="1:6">
-      <c r="A26" s="4">
+        <v>228</v>
+      </c>
+      <c r="G25" t="s">
+        <v>89</v>
+      </c>
+      <c r="H25" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="28.5" r="26" s="2" spans="1:8">
+      <c r="A26" s="4" t="n">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F26" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="27" ht="28.5" customHeight="1" spans="1:6">
-      <c r="A27" s="4">
+        <v>228</v>
+      </c>
+      <c r="G26" t="s">
+        <v>233</v>
+      </c>
+      <c r="H26" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="28.5" r="27" s="2" spans="1:8">
+      <c r="A27" s="4" t="n">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D27" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" t="s">
+        <v>233</v>
+      </c>
+      <c r="G27" t="s">
+        <v>233</v>
+      </c>
+      <c r="H27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="28.5" r="28" s="2" spans="1:8">
+      <c r="A28" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>234</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" t="s">
+        <v>236</v>
+      </c>
+      <c r="G28" t="s">
+        <v>236</v>
+      </c>
+      <c r="H28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="28.5" r="29" s="2" spans="1:8">
+      <c r="A29" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>237</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" t="s">
         <v>219</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="28" ht="28.5" customHeight="1" spans="1:6">
-      <c r="A28" s="4">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>221</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="29" ht="28.5" customHeight="1" spans="1:6">
-      <c r="A29" s="4">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>224</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="30" ht="28.5" customHeight="1" spans="1:6">
-      <c r="A30" s="4">
+      <c r="G29" t="s">
+        <v>219</v>
+      </c>
+      <c r="H29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="28.5" r="30" s="2" spans="1:8">
+      <c r="A30" s="4" t="n">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="31" ht="28.5" customHeight="1" spans="1:6">
-      <c r="A31" s="4">
+        <v>236</v>
+      </c>
+      <c r="G30" t="s">
+        <v>236</v>
+      </c>
+      <c r="H30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="28.5" r="31" s="2" spans="1:8">
+      <c r="A31" s="4" t="n">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F31" t="s">
-        <v>230</v>
+        <v>243</v>
+      </c>
+      <c r="G31" t="s">
+        <v>243</v>
+      </c>
+      <c r="H31" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C3" r:id="rId2" display="/loan/add" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add"/>
-    <hyperlink ref="C4" r:id="rId2" display="/loan/add" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add"/>
-    <hyperlink ref="C5" r:id="rId2" display="/loan/add" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add"/>
-    <hyperlink ref="C6" r:id="rId2" display="/loan/add" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add"/>
-    <hyperlink ref="C7" r:id="rId2" display="/loan/add" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add"/>
-    <hyperlink ref="C8" r:id="rId2" display="/loan/add" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add"/>
-    <hyperlink ref="C9" r:id="rId2" display="/loan/add" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add"/>
-    <hyperlink ref="C10" r:id="rId2" display="/loan/add" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add"/>
-    <hyperlink ref="C11" r:id="rId2" display="/loan/add" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add"/>
-    <hyperlink ref="C12" r:id="rId2" display="/loan/add" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add"/>
-    <hyperlink ref="C13" r:id="rId2" display="/loan/add" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add"/>
-    <hyperlink ref="C14" r:id="rId2" display="/loan/add" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add"/>
-    <hyperlink ref="C15" r:id="rId2" display="/loan/add" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add"/>
-    <hyperlink ref="C16" r:id="rId2" display="/loan/add" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add"/>
-    <hyperlink ref="C17" r:id="rId2" display="/loan/add" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add"/>
-    <hyperlink ref="C18" r:id="rId2" display="/loan/add" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add"/>
-    <hyperlink ref="C19" r:id="rId2" display="/loan/add" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add"/>
-    <hyperlink ref="C20" r:id="rId2" display="/loan/add" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add"/>
-    <hyperlink ref="C21" r:id="rId2" display="/loan/add" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add"/>
-    <hyperlink ref="C22" r:id="rId2" display="/loan/add" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add"/>
-    <hyperlink ref="C23" r:id="rId2" display="/loan/add" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add"/>
-    <hyperlink ref="C24" r:id="rId2" display="/loan/add" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add"/>
-    <hyperlink ref="C25" r:id="rId2" display="/loan/add" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add"/>
-    <hyperlink ref="C26" r:id="rId2" display="/loan/add" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add"/>
-    <hyperlink ref="C27" r:id="rId2" display="/loan/add" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add"/>
-    <hyperlink ref="C28" r:id="rId2" display="/loan/add" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add"/>
-    <hyperlink ref="C29" r:id="rId2" display="/loan/add" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add"/>
-    <hyperlink ref="C30" r:id="rId2" display="/loan/add" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add"/>
-    <hyperlink ref="C31" r:id="rId2" display="/loan/add" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add"/>
+    <hyperlink display="/member/login" ref="C2" r:id="rId1"/>
+    <hyperlink display="/loan/add" ref="C3" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add" r:id="rId2"/>
+    <hyperlink display="/loan/add" ref="C4" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add" r:id="rId3"/>
+    <hyperlink display="/loan/add" ref="C5" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add" r:id="rId4"/>
+    <hyperlink display="/loan/add" ref="C6" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add" r:id="rId5"/>
+    <hyperlink display="/loan/add" ref="C7" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add" r:id="rId6"/>
+    <hyperlink display="/loan/add" ref="C8" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add" r:id="rId7"/>
+    <hyperlink display="/loan/add" ref="C9" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add" r:id="rId8"/>
+    <hyperlink display="/loan/add" ref="C10" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add" r:id="rId9"/>
+    <hyperlink display="/loan/add" ref="C11" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add" r:id="rId10"/>
+    <hyperlink display="/loan/add" ref="C12" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add" r:id="rId11"/>
+    <hyperlink display="/loan/add" ref="C13" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add" r:id="rId12"/>
+    <hyperlink display="/loan/add" ref="C14" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add" r:id="rId13"/>
+    <hyperlink display="/loan/add" ref="C15" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add" r:id="rId14"/>
+    <hyperlink display="/loan/add" ref="C16" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add" r:id="rId15"/>
+    <hyperlink display="/loan/add" ref="C17" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add" r:id="rId16"/>
+    <hyperlink display="/loan/add" ref="C18" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add" r:id="rId17"/>
+    <hyperlink display="/loan/add" ref="C19" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add" r:id="rId18"/>
+    <hyperlink display="/loan/add" ref="C20" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add" r:id="rId19"/>
+    <hyperlink display="/loan/add" ref="C21" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add" r:id="rId20"/>
+    <hyperlink display="/loan/add" ref="C22" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add" r:id="rId21"/>
+    <hyperlink display="/loan/add" ref="C23" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add" r:id="rId22"/>
+    <hyperlink display="/loan/add" ref="C24" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add" r:id="rId23"/>
+    <hyperlink display="/loan/add" ref="C25" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add" r:id="rId24"/>
+    <hyperlink display="/loan/add" ref="C26" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add" r:id="rId25"/>
+    <hyperlink display="/loan/add" ref="C27" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add" r:id="rId26"/>
+    <hyperlink display="/loan/add" ref="C28" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add" r:id="rId27"/>
+    <hyperlink display="/loan/add" ref="C29" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add" r:id="rId28"/>
+    <hyperlink display="/loan/add" ref="C30" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add" r:id="rId29"/>
+    <hyperlink display="/loan/add" ref="C31" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/loan/add" r:id="rId30"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>